--- a/Reports/MarketBeatRank/2019/T_INV19_BASE/MMM.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_BASE/MMM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13355" uniqueCount="80">
   <si>
     <t>Mar_10</t>
   </si>
@@ -138,6 +138,120 @@
   </si>
   <si>
     <t>1/3/2019,Lower Price Target,Underweight ➝ Underweight,$190.00 ➝ $189.00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mar_13</t>
+  </si>
+  <si>
+    <t>Mar_17</t>
+  </si>
+  <si>
+    <t>Mar_24</t>
+  </si>
+  <si>
+    <t>3/22/2019,Lowers Target,Equal Weight -&gt; Equal Weight,$201.00 -&gt; $199.00</t>
+  </si>
+  <si>
+    <t>Mar_27</t>
+  </si>
+  <si>
+    <t>Mar_31</t>
+  </si>
+  <si>
+    <t>3/29/2019,Lowers Target,Underweight,$158.00 -&gt; $154.00</t>
+  </si>
+  <si>
+    <t>Apr_04</t>
+  </si>
+  <si>
+    <t>4/3/2019,Lowers Target,Underweight -&gt; Underweight,$189.00 -&gt; $188.00</t>
+  </si>
+  <si>
+    <t>Oppenheimer Funds</t>
+  </si>
+  <si>
+    <t>Guggenheim</t>
+  </si>
+  <si>
+    <t>Apr_07</t>
+  </si>
+  <si>
+    <t>Apr_11</t>
+  </si>
+  <si>
+    <t>4/10/2019,Upgrades,Sell -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>Apr_17</t>
+  </si>
+  <si>
+    <t>Apr_21</t>
+  </si>
+  <si>
+    <t>Apr_24</t>
+  </si>
+  <si>
+    <t>Apr_28</t>
+  </si>
+  <si>
+    <t>4/26/2019,Set Price Target,Hold,$184.00</t>
+  </si>
+  <si>
+    <t>4/26/2019,Downgrades,Buy -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>4/26/2019,Set Price Target,Buy,$221.00</t>
+  </si>
+  <si>
+    <t>4/26/2019,Downgrades,Buy -&gt; Neutral,</t>
+  </si>
+  <si>
+    <t>May_05</t>
+  </si>
+  <si>
+    <t>May_12</t>
+  </si>
+  <si>
+    <t>May_15</t>
+  </si>
+  <si>
+    <t>Susquehanna Bancshares</t>
+  </si>
+  <si>
+    <t>Nomura</t>
+  </si>
+  <si>
+    <t>May_19</t>
+  </si>
+  <si>
+    <t>5/17/2019,Lowers Target,Underweight,$154.00 -&gt; $143.00</t>
+  </si>
+  <si>
+    <t>May_23</t>
+  </si>
+  <si>
+    <t>May_27</t>
+  </si>
+  <si>
+    <t>5/24/2019,Lowers Target,Equal Weight,$184.00 -&gt; $172.00</t>
+  </si>
+  <si>
+    <t>Jun_03</t>
+  </si>
+  <si>
+    <t>6/3/2019,Reiterates,Buy,$221.00 -&gt; $197.00</t>
+  </si>
+  <si>
+    <t>Jun_09</t>
+  </si>
+  <si>
+    <t>6/3/2019,Lowers Target,Buy,$221.00 -&gt; $197.00</t>
+  </si>
+  <si>
+    <t>6/6/2019,Reiterates,Sell,$162.00</t>
   </si>
 </sst>
 </file>
@@ -154,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +285,16 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -184,10 +308,612 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+  <cellXfs count="605">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -199,9 +925,91 @@
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="8.0" collapsed="false"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -212,12 +1020,132 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -228,6 +1156,66 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -236,12 +1224,132 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="206" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -249,7 +1357,67 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s" s="1">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="514" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="328" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -260,12 +1428,132 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
+      <c r="C8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="330" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -276,6 +1564,66 @@
       <c r="B10" t="s">
         <v>2</v>
       </c>
+      <c r="C10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -284,6 +1632,66 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
+      <c r="C11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -292,12 +1700,132 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
+      <c r="C12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -306,6 +1834,66 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -316,6 +1904,66 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
+      <c r="C15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -324,12 +1972,132 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
+      <c r="C16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="460" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="130" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -338,6 +2106,66 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -345,7 +2173,67 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="590" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="340" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -353,7 +2241,67 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="341" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -364,6 +2312,66 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
+      <c r="C21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -372,6 +2380,66 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
+      <c r="C22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -380,6 +2448,66 @@
       <c r="B23" t="s">
         <v>2</v>
       </c>
+      <c r="C23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -388,12 +2516,132 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
+      <c r="C24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -404,12 +2652,132 @@
       <c r="B26" t="s">
         <v>2</v>
       </c>
+      <c r="C26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="198" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="168" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="0" t="s">
         <v>41</v>
       </c>
     </row>
@@ -420,12 +2788,278 @@
       <c r="B28" t="s">
         <v>2</v>
       </c>
+      <c r="C28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Reports/MarketBeatRank/2019/T_INV19_BASE/MMM.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_BASE/MMM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13355" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27746" uniqueCount="93">
   <si>
     <t>Mar_10</t>
   </si>
@@ -252,6 +252,45 @@
   </si>
   <si>
     <t>6/6/2019,Reiterates,Sell,$162.00</t>
+  </si>
+  <si>
+    <t>Jun_16</t>
+  </si>
+  <si>
+    <t>Jun_24</t>
+  </si>
+  <si>
+    <t>Jun_30</t>
+  </si>
+  <si>
+    <t>6/27/2019,Lowers Target,Neutral,$193.00 -&gt; $185.00</t>
+  </si>
+  <si>
+    <t>Jul_07</t>
+  </si>
+  <si>
+    <t>Jul_17</t>
+  </si>
+  <si>
+    <t>Jul_23</t>
+  </si>
+  <si>
+    <t>Aug_04</t>
+  </si>
+  <si>
+    <t>7/26/2019,Raises Target,Outperform,$180.00 -&gt; $194.00</t>
+  </si>
+  <si>
+    <t>7/29/2019,Raises Target,Equal Weight,$172.00 -&gt; $177.00</t>
+  </si>
+  <si>
+    <t>7/26/2019,Set Price Target,Hold,$179.00</t>
+  </si>
+  <si>
+    <t>Aug_25</t>
+  </si>
+  <si>
+    <t>Sep_08</t>
   </si>
 </sst>
 </file>
@@ -308,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="605">
+  <cellXfs count="893">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -835,6 +874,294 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -899,7 +1226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -945,71 +1272,107 @@
     <col min="19" max="19" customWidth="true" width="8.0" collapsed="true"/>
     <col min="20" max="20" customWidth="true" width="8.0" collapsed="true"/>
     <col min="21" max="21" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="AD1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="AE1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1080,6 +1443,33 @@
       <c r="V2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1091,8 +1481,8 @@
       <c r="C3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>2</v>
+      <c r="D3" s="798" t="s">
+        <v>88</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>2</v>
@@ -1146,6 +1536,33 @@
         <v>2</v>
       </c>
       <c r="V3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1216,6 +1633,33 @@
       <c r="V4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1257,31 +1701,58 @@
       <c r="M5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="206" t="s">
+      <c r="N5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="V5" s="0" t="s">
+      <c r="X5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1350,6 +1821,33 @@
         <v>2</v>
       </c>
       <c r="V6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1363,61 +1861,88 @@
       <c r="C7" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="514" t="s">
+      <c r="D7" s="802" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="514" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="328" t="s">
+      <c r="N7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="328" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="S7" s="64" t="s">
+      <c r="T7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="T7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="1" t="s">
+      <c r="AC7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1488,6 +2013,33 @@
       <c r="V8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1517,36 +2069,36 @@
       <c r="I9" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="330" t="s">
+      <c r="J9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="330" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="T9" s="0" t="s">
         <v>2</v>
       </c>
@@ -1554,6 +2106,33 @@
         <v>2</v>
       </c>
       <c r="V9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1624,6 +2203,33 @@
       <c r="V10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1692,6 +2298,33 @@
       <c r="V11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1760,6 +2393,33 @@
       <c r="V12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1826,6 +2486,33 @@
         <v>2</v>
       </c>
       <c r="V13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1894,6 +2581,33 @@
         <v>2</v>
       </c>
       <c r="V14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1964,6 +2678,33 @@
       <c r="V15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2032,6 +2773,33 @@
       <c r="V16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2049,55 +2817,82 @@
       <c r="E17" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="460" t="s">
+      <c r="F17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="460" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="P17" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="130" t="s">
+      <c r="Q17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="S17" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="U17" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="V17" s="0" t="s">
+      <c r="AA17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2111,8 +2906,8 @@
       <c r="C18" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>2</v>
+      <c r="D18" s="813" t="s">
+        <v>90</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>2</v>
@@ -2166,6 +2961,33 @@
         <v>2</v>
       </c>
       <c r="V18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2173,60 +2995,60 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="590" t="s">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="590" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="L19" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="340" t="s">
+      <c r="M19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="340" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="T19" s="0" t="s">
         <v>2</v>
       </c>
@@ -2234,6 +3056,33 @@
         <v>2</v>
       </c>
       <c r="V19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2259,49 +3108,76 @@
       <c r="G20" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>2</v>
+      <c r="H20" s="687" t="s">
+        <v>83</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="341" t="s">
+      <c r="J20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="341" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="S20" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="T20" s="0" t="s">
         <v>2</v>
       </c>
       <c r="U20" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2372,6 +3248,33 @@
       <c r="V21" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2440,6 +3343,33 @@
       <c r="V22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2508,6 +3438,33 @@
       <c r="V23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2576,6 +3533,33 @@
       <c r="V24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2642,6 +3626,33 @@
         <v>2</v>
       </c>
       <c r="V25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2712,41 +3723,68 @@
       <c r="V26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="L27" s="0" t="s">
         <v>2</v>
       </c>
@@ -2756,28 +3794,55 @@
       <c r="N27" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="O27" s="198" t="s">
+      <c r="O27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="168" t="s">
+      <c r="Y27" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="Q27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="R27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="S27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="T27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="U27" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="V27" s="0" t="s">
+      <c r="Z27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="0" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2848,6 +3913,33 @@
       <c r="V28" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2916,6 +4008,33 @@
       <c r="V29" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="W29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2966,6 +4085,33 @@
       <c r="P30" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="Q30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -3016,6 +4162,33 @@
       <c r="P31" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="Q31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -3039,6 +4212,33 @@
       <c r="G32" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -3060,6 +4260,33 @@
         <v>2</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="0" t="s">
         <v>2</v>
       </c>
     </row>
